--- a/data/trans_camb/POLIPATOLOGIA_Lim_5-Edad-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_Lim_5-Edad-trans_camb.xlsx
@@ -624,7 +624,7 @@
         <v>0.009029920179340151</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.7612351912362247</v>
+        <v>0.7612351912362245</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.163210460003635</v>
+        <v>-0.9390873450137153</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.12926202827586</v>
+        <v>-1.051025793778311</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5517916754347294</v>
+        <v>0.5548845017923224</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.2184809439413754</v>
+        <v>-0.2188686078053419</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.05856584722667761</v>
+        <v>0.04700517500333136</v>
       </c>
     </row>
     <row r="6">
@@ -667,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.210951204468323</v>
+        <v>1.20943420357578</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.926725614901279</v>
+        <v>4.818976816961971</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3573417857298389</v>
+        <v>0.4678567887878568</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.09241087983939</v>
+        <v>2.176696695318018</v>
       </c>
     </row>
     <row r="7">
@@ -706,7 +706,7 @@
         <v>0.08318625547170655</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>7.012720360154648</v>
+        <v>7.012720360154646</v>
       </c>
     </row>
     <row r="8">
@@ -779,16 +779,16 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.52941825860159</v>
+        <v>-1.387887907787834</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.009690246559511664</v>
+        <v>-0.001784685970987204</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.6835263969251588</v>
+        <v>-0.6716363988781217</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2215558742009441</v>
+        <v>0.2400849971538782</v>
       </c>
     </row>
     <row r="12">
@@ -800,19 +800,19 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>1.864933350681834</v>
+        <v>1.773889666561855</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.219101356260162</v>
+        <v>1.139522280129911</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.481105813458619</v>
+        <v>3.719617520403717</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.594642324196562</v>
+        <v>0.5121999242052379</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.149143210252182</v>
+        <v>2.202432800959388</v>
       </c>
     </row>
     <row r="13">
@@ -851,16 +851,16 @@
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="n">
-        <v>-0.7715418153481619</v>
+        <v>-0.7762906990262737</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2819831851440779</v>
+        <v>-0.1422172598498523</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7798782913769422</v>
+        <v>-0.7982934636105921</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1206932243912057</v>
+        <v>0.006201760470439014</v>
       </c>
     </row>
     <row r="15">
@@ -873,16 +873,16 @@
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>2.715533356902025</v>
+        <v>2.593533251479105</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>5.62333847474748</v>
+        <v>6.382482766030111</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.447313742526966</v>
+        <v>2.31410028455084</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>8.434710540138846</v>
+        <v>8.436623799166167</v>
       </c>
     </row>
     <row r="16">
@@ -900,19 +900,19 @@
         <v>-0.05005387601422859</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>2.423025395150999</v>
+        <v>2.423025395151</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>-0.6491099464688853</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.625742235138665</v>
+        <v>1.625742235138664</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>-0.3803323431257083</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>2.000529986195445</v>
+        <v>2.000529986195444</v>
       </c>
     </row>
     <row r="17">
@@ -923,22 +923,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.7179634952008512</v>
+        <v>-0.668970812161511</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.01944439727023</v>
+        <v>1.079263872439163</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.299541802864395</v>
+        <v>-2.355167958142137</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.2814879468959509</v>
+        <v>-0.4029143878477182</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.446256382248269</v>
+        <v>-1.321775780327315</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.8262102523151438</v>
+        <v>0.8283521200432545</v>
       </c>
     </row>
     <row r="18">
@@ -949,22 +949,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.727935102437081</v>
+        <v>0.739072932797463</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.137363312316469</v>
+        <v>4.016865399372976</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.113391662959681</v>
+        <v>0.9493483024050786</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.531966376147976</v>
+        <v>3.560119657686247</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4941511748419529</v>
+        <v>0.5098178341465907</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.176813007291</v>
+        <v>3.259264231226676</v>
       </c>
     </row>
     <row r="19">
@@ -978,13 +978,13 @@
         <v>-0.1197281574256292</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>5.795842181621851</v>
+        <v>5.795842181621853</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>-0.2269730639136658</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0.5684702541543352</v>
+        <v>0.5684702541543349</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.2285143619486239</v>
@@ -1002,19 +1002,19 @@
       </c>
       <c r="C20" s="6" t="inlineStr"/>
       <c r="D20" s="6" t="n">
-        <v>0.6415736524248055</v>
+        <v>0.6899747426096862</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.6040808941797869</v>
+        <v>-0.6186400731166477</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.09839766356103578</v>
+        <v>-0.1215422846109575</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6220300400262904</v>
+        <v>-0.5893977425518114</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3506915641042644</v>
+        <v>0.3440101647641016</v>
       </c>
     </row>
     <row r="21">
@@ -1026,19 +1026,19 @@
       </c>
       <c r="C21" s="6" t="inlineStr"/>
       <c r="D21" s="6" t="n">
-        <v>28.82584657207561</v>
+        <v>24.0292866631703</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.5938783892715022</v>
+        <v>0.5235217370788249</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.787878557408786</v>
+        <v>1.906339935687519</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4266291128757837</v>
+        <v>0.4686974344314681</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.575218016443217</v>
+        <v>2.655464368894453</v>
       </c>
     </row>
     <row r="22">
@@ -1068,7 +1068,7 @@
         <v>0.06426503393204483</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>4.776831433289225</v>
+        <v>4.776831433289227</v>
       </c>
     </row>
     <row r="23">
@@ -1079,22 +1079,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.570519947399771</v>
+        <v>-1.465287568232614</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.51129449564918</v>
+        <v>1.638614758446053</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.552516721102665</v>
+        <v>-2.870197619949305</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.803975071337616</v>
+        <v>2.925408483775772</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.529124907203776</v>
+        <v>-1.48180920379352</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.958740706555387</v>
+        <v>2.766209610327202</v>
       </c>
     </row>
     <row r="24">
@@ -1105,22 +1105,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.962372151434428</v>
+        <v>1.897483306236548</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.10209725389991</v>
+        <v>6.051000475879577</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.63787401068813</v>
+        <v>2.670612757406973</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.375074695478174</v>
+        <v>8.298427526607806</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.709513068760161</v>
+        <v>1.683123147219096</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.39673769538517</v>
+        <v>6.404679811459145</v>
       </c>
     </row>
     <row r="25">
@@ -1146,7 +1146,7 @@
         <v>0.01609682646300942</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>1.196479981727112</v>
+        <v>1.196479981727113</v>
       </c>
     </row>
     <row r="26">
@@ -1157,22 +1157,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5516811736146361</v>
+        <v>-0.5263358518640936</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.4168175232823469</v>
+        <v>0.4263044005570359</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3617361673608696</v>
+        <v>-0.3921377477831897</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.3460629904623157</v>
+        <v>0.3623383725022933</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.314784022694983</v>
+        <v>-0.3081991196081785</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5901711317889876</v>
+        <v>0.550825222694751</v>
       </c>
     </row>
     <row r="27">
@@ -1183,22 +1183,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.643307857716479</v>
+        <v>1.58932376572257</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>5.232364673111781</v>
+        <v>4.570722976927478</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.6283269234860437</v>
+        <v>0.6023470926899934</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.857727472749008</v>
+        <v>1.902222283095176</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5360853701597083</v>
+        <v>0.54748112417609</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.098467930695372</v>
+        <v>2.061138967265273</v>
       </c>
     </row>
     <row r="28">
@@ -1222,13 +1222,13 @@
         <v>0.3667026191950501</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>3.059766379372395</v>
+        <v>3.059766379372397</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.9424189311205657</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>4.00449606690024</v>
+        <v>4.004496066900237</v>
       </c>
     </row>
     <row r="29">
@@ -1239,22 +1239,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.8492795284247913</v>
+        <v>-1.113857814433673</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>2.483158666057089</v>
+        <v>2.261206891317764</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-4.59593183477943</v>
+        <v>-4.612916086885956</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.9495660340965778</v>
+        <v>-1.143941482281034</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.894363336969525</v>
+        <v>-1.928697848389029</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>1.013859566661766</v>
+        <v>1.644679887812418</v>
       </c>
     </row>
     <row r="30">
@@ -1265,22 +1265,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.665645161401646</v>
+        <v>4.52250611252041</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.860600028229098</v>
+        <v>7.752992627131448</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.737649764404792</v>
+        <v>5.310279820270983</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7.432513355213767</v>
+        <v>7.143373791599414</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>4.021735036157921</v>
+        <v>3.780138265633285</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>6.352696789966325</v>
+        <v>6.610653181885061</v>
       </c>
     </row>
     <row r="31">
@@ -1300,13 +1300,13 @@
         <v>0.02498053211738813</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>0.208437541240906</v>
+        <v>0.2084375412409062</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1028050456880524</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.4368358778890424</v>
+        <v>0.436835877889042</v>
       </c>
     </row>
     <row r="32">
@@ -1317,22 +1317,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2105123976164301</v>
+        <v>-0.2480365296664066</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.4807524784589973</v>
+        <v>0.3900879742347125</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.274918959996055</v>
+        <v>-0.2664832043538877</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.05814555146604371</v>
+        <v>-0.06176608049895906</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1804598390500263</v>
+        <v>-0.1893554218778516</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.08833102394260457</v>
+        <v>0.1474768442321317</v>
       </c>
     </row>
     <row r="33">
@@ -1343,22 +1343,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.8857015765075</v>
+        <v>2.005240565592103</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>3.80245541165859</v>
+        <v>3.365140510927315</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.3905676694960361</v>
+        <v>0.4226088326547968</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.6311761500176716</v>
+        <v>0.5984300745331509</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.5306961713970146</v>
+        <v>0.4842176720845234</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.8330910399099447</v>
+        <v>0.8648986968175753</v>
       </c>
     </row>
     <row r="34">
@@ -1382,7 +1382,7 @@
         <v>1.82034560314176</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>6.468303399404007</v>
+        <v>6.468303399404002</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>-2.275833659951093</v>
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-11.80512214295209</v>
+        <v>-11.58389952216024</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-6.397500258888003</v>
+        <v>-6.582167773037423</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-4.467847144304976</v>
+        <v>-4.228660518476855</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1.106710753375173</v>
+        <v>1.312822946726873</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-5.919108265609932</v>
+        <v>-6.407424055705667</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-0.9554406433295335</v>
+        <v>-1.1490845333601</v>
       </c>
     </row>
     <row r="36">
@@ -1425,22 +1425,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>-1.519647974131709</v>
+        <v>-1.95658625552489</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>3.534307061714305</v>
+        <v>3.029691027627678</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>8.030105209529582</v>
+        <v>7.989491598973379</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>11.25812967557785</v>
+        <v>11.60112190481576</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1.639265216443633</v>
+        <v>1.278911526545058</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>6.260883854516831</v>
+        <v>6.262779780454881</v>
       </c>
     </row>
     <row r="37">
@@ -1460,7 +1460,7 @@
         <v>0.09548107184302196</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>0.3392765310691727</v>
+        <v>0.3392765310691724</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>-0.1381118984696482</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.7061505764342231</v>
+        <v>-0.7089663578539365</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.3702417042006445</v>
+        <v>-0.3833529994605339</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.1940602965898434</v>
+        <v>-0.1920500678649628</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.04742733782624444</v>
+        <v>0.0595789162611567</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.3237171889953608</v>
+        <v>-0.3432308631406534</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.04861177596494262</v>
+        <v>-0.06039795406067108</v>
       </c>
     </row>
     <row r="39">
@@ -1503,22 +1503,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>-0.1202909658063613</v>
+        <v>-0.1612870700483102</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.3579620947728299</v>
+        <v>0.2967395368768205</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.5148231336639782</v>
+        <v>0.4875794738203001</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.6865202216005356</v>
+        <v>0.7530283826684157</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.1182794107775694</v>
+        <v>0.09062275573599639</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.4522867294000871</v>
+        <v>0.4380064231499721</v>
       </c>
     </row>
     <row r="40">
@@ -1542,13 +1542,13 @@
         <v>-8.131531279569943</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>10.34269400809666</v>
+        <v>10.34269400809665</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>-6.057691187816816</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>9.090077027273614</v>
+        <v>9.090077027273608</v>
       </c>
     </row>
     <row r="41">
@@ -1559,22 +1559,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-9.958502606164288</v>
+        <v>-9.287316421663654</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>0.5620343831678003</v>
+        <v>0.4204237956452116</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-14.81645518384061</v>
+        <v>-14.76858170194299</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>3.841950504929962</v>
+        <v>4.62350053553847</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-10.72035765326041</v>
+        <v>-11.73279610813535</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>4.531746399391046</v>
+        <v>4.474289284960523</v>
       </c>
     </row>
     <row r="42">
@@ -1585,22 +1585,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.472912837640739</v>
+        <v>4.022301468069276</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>13.87070931502083</v>
+        <v>13.93162856867355</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-0.4203284040647521</v>
+        <v>-1.441552686567464</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>16.2561970204786</v>
+        <v>16.44438034238941</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-0.9624321377589056</v>
+        <v>-0.7306934869553724</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>13.73588890148236</v>
+        <v>13.64511429685378</v>
       </c>
     </row>
     <row r="43">
@@ -1620,13 +1620,13 @@
         <v>-0.2380341803434192</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>0.3027615102392235</v>
+        <v>0.3027615102392234</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>-0.212559021624158</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.31896275651877</v>
+        <v>0.3189627565187699</v>
       </c>
     </row>
     <row r="44">
@@ -1637,22 +1637,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.4201590295448022</v>
+        <v>-0.3995055691890175</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.02266436685534747</v>
+        <v>0.01881573929573172</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.4060584044261669</v>
+        <v>-0.3990769810391565</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.1036822585530573</v>
+        <v>0.1226204613779928</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.3513219777646862</v>
+        <v>-0.3668172339331663</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1462372800702981</v>
+        <v>0.1460666935049309</v>
       </c>
     </row>
     <row r="45">
@@ -1663,22 +1663,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.2257598959757509</v>
+        <v>0.2662923752033405</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.8921613685445983</v>
+        <v>0.9154912019946917</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.01406536898584294</v>
+        <v>-0.0418062556112182</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.5563301559592689</v>
+        <v>0.5500891577112471</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.03309046563442083</v>
+        <v>-0.02416239384425934</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.550376161448172</v>
+        <v>0.5488188014947097</v>
       </c>
     </row>
     <row r="46">
@@ -1708,7 +1708,7 @@
         <v>-0.3688659130596232</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>4.643847315174317</v>
+        <v>4.643847315174315</v>
       </c>
     </row>
     <row r="47">
@@ -1719,22 +1719,22 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.296390495089203</v>
+        <v>-1.225938651628846</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>2.412628991799589</v>
+        <v>2.317902782021688</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-1.753648780223899</v>
+        <v>-1.743354312135889</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>4.257177931454861</v>
+        <v>4.367377389953115</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-1.214752884611964</v>
+        <v>-1.18063617824961</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>3.769785132482854</v>
+        <v>3.720239704332843</v>
       </c>
     </row>
     <row r="48">
@@ -1745,22 +1745,22 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.5102773687878961</v>
+        <v>0.4562741811379081</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>4.487978320050109</v>
+        <v>4.408130735548451</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1.23634711315755</v>
+        <v>1.244297064324208</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>7.054800120474977</v>
+        <v>7.116621498010343</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>0.5537068691799153</v>
+        <v>0.4617620500427426</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>5.572659466246365</v>
+        <v>5.494280095192516</v>
       </c>
     </row>
     <row r="49">
@@ -1786,7 +1786,7 @@
         <v>-0.0569605984003015</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.7171069827458044</v>
+        <v>0.7171069827458042</v>
       </c>
     </row>
     <row r="50">
@@ -1797,22 +1797,22 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.3174260499054395</v>
+        <v>-0.3154736685637693</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.5867347316968243</v>
+        <v>0.5746161940301773</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.1755549632402864</v>
+        <v>-0.1688089764442379</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.4276765069490074</v>
+        <v>0.4341735247079389</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.1784350091408502</v>
+        <v>-0.1736570097199781</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.5433063326239919</v>
+        <v>0.5400513230892052</v>
       </c>
     </row>
     <row r="51">
@@ -1823,22 +1823,22 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.1592210626660022</v>
+        <v>0.1453290537190819</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>1.465946836928513</v>
+        <v>1.421655261622582</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.1421221812986893</v>
+        <v>0.143996464265059</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.8234194977998724</v>
+        <v>0.8207751967302804</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.0969700618797497</v>
+        <v>0.0758071256785426</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.9174869076258646</v>
+        <v>0.9223357199924861</v>
       </c>
     </row>
     <row r="52">
